--- a/1.xlsx
+++ b/1.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcdan\OneDrive\Desktop\Weightlifting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23822BF1-00A4-4847-8BD4-E133DDFB19CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD47A4A6-BD14-404F-B20F-9F08DE6E6853}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DB016B62-A7F1-47A4-973B-42268A6C4056}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{DB016B62-A7F1-47A4-973B-42268A6C4056}"/>
   </bookViews>
   <sheets>
     <sheet name="WEEK 1 (3.25)" sheetId="1" r:id="rId1"/>
+    <sheet name="WEEK 2 (4.1)" sheetId="2" r:id="rId2"/>
+    <sheet name="WEEK 3 (4.8)" sheetId="3" r:id="rId3"/>
+    <sheet name="WEEK 4 (4.15)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
   <si>
     <t>Nittany Barbell Club Programming</t>
   </si>
@@ -109,13 +112,112 @@
   </si>
   <si>
     <t>E) 3 sets</t>
+  </si>
+  <si>
+    <t>B) Clean &amp; Jerk (1+1) @ 50% x 2, 60% x 2, 70% x 2, 80% x 1, 85% x 1, 90% x 1, 80% x 1 x 2</t>
+  </si>
+  <si>
+    <t>C) Snatch Pull @ 95% x3, 100% x 2 x 2, 105% x 2 x 2</t>
+  </si>
+  <si>
+    <t>D) FS @ @ 50% x 3, 60% x 3, @ 70% x 3, 80% x 3, 85% x 2 x 2</t>
+  </si>
+  <si>
+    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 2, 80% x 1, 85% x 1, 90% x 1, 80% x 1 x 3</t>
+  </si>
+  <si>
+    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 2, 80% x  x 2 x 4</t>
+  </si>
+  <si>
+    <t>B) Clean &amp; Jerk (1+1) @ 50% x 2, 60% x 2, 70% x 2, 80% x 2x 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C) BS @ 50% x 3, 60% x 3, 70% x 2, 80% x 2 </t>
+  </si>
+  <si>
+    <t>A) Power Snatch @ 50% x 2 x 2, 60% x 2 x 2, 70% x 2, 75% x 1, 80% x 1, 70% x 2, 75% x 1, 80% x 1, 70% x 2, 75% x 1, 80% x 1</t>
+  </si>
+  <si>
+    <t>B) Power Clean + Power Jerk @ 50% x 2 x 2, 60% x 2 x 2, 70% x 2, 75% x 1, 80% x 1, 70% x 2, 75% x 1, 80% x 1</t>
+  </si>
+  <si>
+    <t>C) Clean Pull @ 85% x 2, 95% x 2, 105% x 2 x 3</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 2, 80% x 1, 85% x 1, 90% x 1, HS (read above instructions)</t>
+  </si>
+  <si>
+    <t>B) Clean &amp; Jerk (1+1) @ 50% x 2, 60% x 2, 70% x 2, 80% x 1, 85% x 1, 90% x 1 (read above instructions)</t>
+  </si>
+  <si>
+    <t>C) Snatch Pull @ 105% x 2 x 5</t>
+  </si>
+  <si>
+    <t>D) FS @ @ 50% x 3, 60% x 3, @ 70% x 3, 80% x 2, 85% x 1, 90 % x 1, HS (read above instructions)</t>
+  </si>
+  <si>
+    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 2, 80% x  x 2 x 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) Power Snatch @ 50% x 2 x 2, 60% x 2 x 2, 70% x 2, 75% x 1, 80% x 1, 70% x 2, 75% x 1, 80% x 1 x 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B) Power Clean + Power Jerk @ 50% x 2 x 2, 60% x 2 x 2, 70% x 2, 75% x 1, 80% x 1 x 2 </t>
+  </si>
+  <si>
+    <t>C) Clean Pull @ 95% x 2 x 5</t>
+  </si>
+  <si>
+    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 2, 80% x1 x 3</t>
+  </si>
+  <si>
+    <t>B) Clean &amp; Jerk (1+1) @ 50% x 2, 60% x 2, 70% x 2, 80% x 1 x 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C) BS @ 50% x 3, 60% x 3, 70% x 2, 80% x 2, 90% x 1 x 2 </t>
+  </si>
+  <si>
+    <t>On snatch, Cj and FS, work up to a heavy single (HS). Then 2 times, drop down to 90% of that HS for a single, then 95% for a single, then try to repeat that heavy single., HEAVY SINGLE DOES NOT MEAN TEST.</t>
+  </si>
+  <si>
+    <t>B) Power Clean + Power Jerk @ 50% x 2 x 2, 60% x 2 x 2, 70% x 1 x 2</t>
+  </si>
+  <si>
+    <t>A) Power Snatch @ 50% x 2 x 2, 60% x 2 x 2, 70% x 2, 80% x 1</t>
+  </si>
+  <si>
+    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 2, 80% x 1, 85% x 1, 90% x 1, test for the day</t>
+  </si>
+  <si>
+    <t>B) Clean &amp; Jerk (1+1) @ 50% x 2, 60% x 2, 70% x 2, 80% x 1, 85% x 1, 90% x 1, test for the day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D) FS @ @ 50% x 3, 60% x 3, @ 70% x 3, 80% x 3, 85% x 2, 90 % x 1, test for the day </t>
+  </si>
+  <si>
+    <t>E) Magic Abs</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>RFESS x 8/leg at 3010, add weight</t>
+  </si>
+  <si>
+    <t>RFESS x 12/leg at 3010, less weight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +246,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -210,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -241,6 +350,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0513CF5E-46EF-4A40-9FA9-CD59AED7D9AF}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -784,4 +902,667 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3DDC14-92B4-4BB1-8783-7DFDDF9AD558}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.7265625" customWidth="1"/>
+    <col min="2" max="2" width="3.90625" customWidth="1"/>
+    <col min="3" max="3" width="34.54296875" customWidth="1"/>
+    <col min="4" max="4" width="4.453125" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="57" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="57" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="3"/>
+      <c r="C21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="11"/>
+      <c r="B22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE72F6DE-074E-40C2-901C-47F33DBE05CF}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.7265625" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" customWidth="1"/>
+    <col min="3" max="3" width="34.6328125" customWidth="1"/>
+    <col min="4" max="4" width="3.54296875" customWidth="1"/>
+    <col min="5" max="5" width="34.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="79" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="13"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7623301C-375C-46E1-9941-A94C2DF8A823}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.36328125" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="4.54296875" customWidth="1"/>
+    <col min="5" max="5" width="35.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="13"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcdan\OneDrive\Desktop\Weightlifting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD47A4A6-BD14-404F-B20F-9F08DE6E6853}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0DC148-6E53-4358-B0CC-0445C779501E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{DB016B62-A7F1-47A4-973B-42268A6C4056}"/>
   </bookViews>
   <sheets>
-    <sheet name="WEEK 1 (3.25)" sheetId="1" r:id="rId1"/>
-    <sheet name="WEEK 2 (4.1)" sheetId="2" r:id="rId2"/>
-    <sheet name="WEEK 3 (4.8)" sheetId="3" r:id="rId3"/>
-    <sheet name="WEEK 4 (4.15)" sheetId="4" r:id="rId4"/>
+    <sheet name="WEEK 1 (4.22)" sheetId="1" r:id="rId1"/>
+    <sheet name="WEEK 2 (4.29)" sheetId="2" r:id="rId2"/>
+    <sheet name="WEEK 3 (5.6)" sheetId="3" r:id="rId3"/>
+    <sheet name="WEEK 4 (5.13)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
   <si>
     <t>Nittany Barbell Club Programming</t>
   </si>
@@ -45,172 +45,163 @@
     <t>DAY 3</t>
   </si>
   <si>
-    <t>A) Muscle clean + drop jerk x 3 x 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B) Snatch @ 70% x 2, 75% x 1, 80% x 1 x 3 </t>
-  </si>
-  <si>
-    <t>B) Clean &amp; Jerk (1+1) @ 50% x 1, 60% x 1, 70% x 1, 75% x 1, 80% x 1 x 3</t>
-  </si>
-  <si>
-    <t>C) Snatch Pull @ 90% x2, 85% x 2, 100% x 2</t>
-  </si>
-  <si>
-    <t>C) Clean pull @ 90% x 2, 95% x 2, 100% x 2</t>
-  </si>
-  <si>
-    <t>C) Push Press @ 70% x 5, 75% x 3, 75% x 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D) FS @ @ 50% x 3, 60% x 3, @ 70% x 3, 75% x 2 x 3 </t>
-  </si>
-  <si>
-    <t>D) BS @ 50% x 3, 60% x 3, 70% x 3, 75% x 3,  80% x 2 x 3</t>
-  </si>
-  <si>
-    <t>3.25.19 - 4.19.19</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
-    <t>A) Snatch (pause at the mid thigh) @ 50% x 2, 60% x 2, 70% x 2</t>
-  </si>
-  <si>
-    <t>A) Power Snatch + OHS @ 50% x 2 x 2, 60% x 2 x 2, 70% x 2 x 2, 75% x 2 x 2</t>
-  </si>
-  <si>
-    <t>B)Power Clean + Power Jerk @ 50% x 2 x 2, 60% x 2 x 2, 70% x 2 x 2, 75% x 2 x 2</t>
-  </si>
-  <si>
-    <t>D) 2 sets</t>
-  </si>
-  <si>
-    <t>RFESS x 8/leg at 3010</t>
-  </si>
-  <si>
-    <t>Seat DB Z press x 10-15</t>
-  </si>
-  <si>
-    <t>DB pull overs x 15</t>
-  </si>
-  <si>
-    <t>Plate reach crunches x 15-20</t>
-  </si>
-  <si>
-    <t>Walking plate twists x 20m</t>
-  </si>
-  <si>
-    <t>Accumulate 2 minutes in Sorenson hold during the accessory work</t>
-  </si>
-  <si>
-    <t>E) 2 sets</t>
-  </si>
-  <si>
-    <t>GHR x 10-15</t>
-  </si>
-  <si>
     <t>E) 3 sets</t>
   </si>
   <si>
-    <t>B) Clean &amp; Jerk (1+1) @ 50% x 2, 60% x 2, 70% x 2, 80% x 1, 85% x 1, 90% x 1, 80% x 1 x 2</t>
-  </si>
-  <si>
-    <t>C) Snatch Pull @ 95% x3, 100% x 2 x 2, 105% x 2 x 2</t>
-  </si>
-  <si>
-    <t>D) FS @ @ 50% x 3, 60% x 3, @ 70% x 3, 80% x 3, 85% x 2 x 2</t>
-  </si>
-  <si>
-    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 2, 80% x 1, 85% x 1, 90% x 1, 80% x 1 x 3</t>
-  </si>
-  <si>
-    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 2, 80% x  x 2 x 4</t>
-  </si>
-  <si>
-    <t>B) Clean &amp; Jerk (1+1) @ 50% x 2, 60% x 2, 70% x 2, 80% x 2x 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C) BS @ 50% x 3, 60% x 3, 70% x 2, 80% x 2 </t>
-  </si>
-  <si>
-    <t>A) Power Snatch @ 50% x 2 x 2, 60% x 2 x 2, 70% x 2, 75% x 1, 80% x 1, 70% x 2, 75% x 1, 80% x 1, 70% x 2, 75% x 1, 80% x 1</t>
-  </si>
-  <si>
-    <t>B) Power Clean + Power Jerk @ 50% x 2 x 2, 60% x 2 x 2, 70% x 2, 75% x 1, 80% x 1, 70% x 2, 75% x 1, 80% x 1</t>
-  </si>
-  <si>
-    <t>C) Clean Pull @ 85% x 2, 95% x 2, 105% x 2 x 3</t>
-  </si>
-  <si>
     <t>Week 2</t>
   </si>
   <si>
     <t>Week 3</t>
   </si>
   <si>
-    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 2, 80% x 1, 85% x 1, 90% x 1, HS (read above instructions)</t>
-  </si>
-  <si>
-    <t>B) Clean &amp; Jerk (1+1) @ 50% x 2, 60% x 2, 70% x 2, 80% x 1, 85% x 1, 90% x 1 (read above instructions)</t>
-  </si>
-  <si>
-    <t>C) Snatch Pull @ 105% x 2 x 5</t>
-  </si>
-  <si>
-    <t>D) FS @ @ 50% x 3, 60% x 3, @ 70% x 3, 80% x 2, 85% x 1, 90 % x 1, HS (read above instructions)</t>
-  </si>
-  <si>
-    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 2, 80% x  x 2 x 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A) Power Snatch @ 50% x 2 x 2, 60% x 2 x 2, 70% x 2, 75% x 1, 80% x 1, 70% x 2, 75% x 1, 80% x 1 x 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B) Power Clean + Power Jerk @ 50% x 2 x 2, 60% x 2 x 2, 70% x 2, 75% x 1, 80% x 1 x 2 </t>
-  </si>
-  <si>
-    <t>C) Clean Pull @ 95% x 2 x 5</t>
-  </si>
-  <si>
-    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 2, 80% x1 x 3</t>
-  </si>
-  <si>
-    <t>B) Clean &amp; Jerk (1+1) @ 50% x 2, 60% x 2, 70% x 2, 80% x 1 x 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C) BS @ 50% x 3, 60% x 3, 70% x 2, 80% x 2, 90% x 1 x 2 </t>
-  </si>
-  <si>
-    <t>On snatch, Cj and FS, work up to a heavy single (HS). Then 2 times, drop down to 90% of that HS for a single, then 95% for a single, then try to repeat that heavy single., HEAVY SINGLE DOES NOT MEAN TEST.</t>
-  </si>
-  <si>
-    <t>B) Power Clean + Power Jerk @ 50% x 2 x 2, 60% x 2 x 2, 70% x 1 x 2</t>
-  </si>
-  <si>
-    <t>A) Power Snatch @ 50% x 2 x 2, 60% x 2 x 2, 70% x 2, 80% x 1</t>
-  </si>
-  <si>
-    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 2, 80% x 1, 85% x 1, 90% x 1, test for the day</t>
-  </si>
-  <si>
-    <t>B) Clean &amp; Jerk (1+1) @ 50% x 2, 60% x 2, 70% x 2, 80% x 1, 85% x 1, 90% x 1, test for the day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D) FS @ @ 50% x 3, 60% x 3, @ 70% x 3, 80% x 3, 85% x 2, 90 % x 1, test for the day </t>
-  </si>
-  <si>
-    <t>E) Magic Abs</t>
-  </si>
-  <si>
     <t>Week 4</t>
   </si>
   <si>
-    <t>RFESS x 8/leg at 3010, add weight</t>
-  </si>
-  <si>
-    <t>RFESS x 12/leg at 3010, less weight</t>
+    <t>4.22.19 - 5.17.19</t>
+  </si>
+  <si>
+    <t>A) Muscle Snatch from hip x 5 x 5</t>
+  </si>
+  <si>
+    <t>B) Snatch @ 50% x 2, 60% x 2, 70% x 1 x5(OTM), 75% x1 x 4 (OTM), 80% x1 x 3(OTM)</t>
+  </si>
+  <si>
+    <t>D) BS @ 50% x 5, 60% x 5, 70% x 5 x 3 (5 second eccentic on the first rep of each set)</t>
+  </si>
+  <si>
+    <t>C) Push Press @ 60-70% x 5 x5</t>
+  </si>
+  <si>
+    <t>A) Muscle clean from the ground x 5 x 5</t>
+  </si>
+  <si>
+    <t>B) Clean @ 50% x 2, 60% x 2, 70% x 1 x5(OTM), 75% x1 x 4 (OTM), 80% x1 x 3(OTM)</t>
+  </si>
+  <si>
+    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 1, 75% x 1, 80% x 1 x 2</t>
+  </si>
+  <si>
+    <t>B) Clean &amp; Jerk @ 50% x 2, 60% x 2, 70% x 1, 75% x 1, 80% x 1 x 2</t>
+  </si>
+  <si>
+    <t>D) Stiff Legged Deadlifts x 5 x 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D) Floating Clean Deadlift @ 85% x 3 x 3  </t>
+  </si>
+  <si>
+    <t>https://www.catalystathletics.com/exercise/325/Floating-Clean-Deadlift/</t>
+  </si>
+  <si>
+    <t>1 rep = J + JB</t>
+  </si>
+  <si>
+    <t>10 Good mornings (standing, staggers, seated)</t>
+  </si>
+  <si>
+    <t>Max Effort Perfect Pushups</t>
+  </si>
+  <si>
+    <t>10-20 strict pullups, do what you need to to hit this range</t>
+  </si>
+  <si>
+    <t>12-15 reverse hypers</t>
+  </si>
+  <si>
+    <t>20 russian twists</t>
+  </si>
+  <si>
+    <t>0:45 plank</t>
+  </si>
+  <si>
+    <t>8 split squats/leg at 3010</t>
+  </si>
+  <si>
+    <t>B) Snatch @ 50% x 2, 60% x 2, 70% x 1, 73% 1 x5(OTM), 78% x1 x 4 (OTM), 83% x1 x 3(OTM)</t>
+  </si>
+  <si>
+    <t>D) BS @ 50% x 5, 60% x 5, 70% x 5, 75% x 5 x 2 (5 second eccentic on the first rep of each set)</t>
+  </si>
+  <si>
+    <t>C) Push Press @ 60-70% x 5 x2, 65-75% x 5 x 3</t>
+  </si>
+  <si>
+    <t>B) Clean @ 50% x 2, 60% x 2, 70% x 1, 73% 1 x5(OTM), 78% x1 x 4 (OTM), 83% x1 x 3(OTM)</t>
+  </si>
+  <si>
+    <t>C) Jerk + Jerk Balance @ 50% x 2, 60% x 2, 70% x 2 x 2</t>
+  </si>
+  <si>
+    <t>C) Jerk + Jerk Balance @ 50% x 2, 60% x 2, 70% x 2</t>
+  </si>
+  <si>
+    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 1, 75% x 1, 80% x 1, 85% x 1 x 2</t>
+  </si>
+  <si>
+    <t>B) Clean &amp; Jerk @ 50% x 2, 60% x 2, 70% x 1, 75% x 1, 80% x 1, 85% x 1</t>
+  </si>
+  <si>
+    <t>C) Front Squat @ 50% x 3, 60% x 3, 70% x 3, 75% x 3, 80% x 3 x 2</t>
+  </si>
+  <si>
+    <t>C) Front Squat @ 50% x 3, 60% x 3, 70% x 3, 75% x 3 x 3</t>
+  </si>
+  <si>
+    <t>B) Snatch @ 50% x 2, 60% x 2, 70% x 1, 75% 1 x4(OTM), 80% x1 x 3 (OTM), 85% x1 x 2(OTM)</t>
+  </si>
+  <si>
+    <t>B) Clean @ 50% x 2, 60% x 2, 70% x 1, 75% 1 x4(OTM), 80% x1 x 3 (OTM), 85% x1 x 2(OTM)</t>
+  </si>
+  <si>
+    <t>C) Jerk + Jerk Balance @ 50% x 2, 60% x 2, 70% x 2 x 3</t>
+  </si>
+  <si>
+    <t>D) BS @ 50% x 5, 60% x 5, 70% x 5, 75% x 5 x 3 (5 second eccentic on the first rep of each set)</t>
+  </si>
+  <si>
+    <t>C) Push Press @ 60-70% x 5, 65-75% x 5 x 4, increase if feeling good</t>
+  </si>
+  <si>
+    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 1,80% x 1, 85% x 1, 90% x 1</t>
+  </si>
+  <si>
+    <t>B) Clean &amp; Jerk @ 50% x 2, 60% x 2, 70% x 1,80% x 1, 85% x 1, 90% x 1</t>
+  </si>
+  <si>
+    <t>C) Front Squat @ 50% x 3, 60% x 3, 70% x 3, 80% x 3 x 3 - go up during the 3 set if feeling good</t>
+  </si>
+  <si>
+    <t>C) Jerk + Jerk Balance @ 50% x 3, 60% x 3, 70% x 3</t>
+  </si>
+  <si>
+    <t>B) Snatch @ 50% x 2, 60% x 2, 70% x 1, 75% 1 x5(OTM)</t>
+  </si>
+  <si>
+    <t>D) BS @ 50% x 5, 60% x 5, 70% x 5, 75% x 5 x 3  - no eccentric work</t>
+  </si>
+  <si>
+    <t>C) Push Press @ 70% x 3 x 3</t>
+  </si>
+  <si>
+    <t>B) Clean @ 50% x 2, 60% x 2, 70% x 1, 75% 1 x5(OTM)</t>
+  </si>
+  <si>
+    <t>A) Snatch @ 50% x 2, 60% x 2, 70% x 1,80% x 1 x 3</t>
+  </si>
+  <si>
+    <t>B) Clean &amp; Jerk @ 50% x 2, 60% x 2, 70% x 1,80% x 1 x 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C) Front Squat @ 50% x 2, 60% x 2, 70% x 2, 75% x 2, 80% x 2 x 2 </t>
+  </si>
+  <si>
+    <t>15 hammer curls</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -251,11 +242,12 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -266,7 +258,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -304,22 +296,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -346,21 +328,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -673,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0513CF5E-46EF-4A40-9FA9-CD59AED7D9AF}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -699,7 +676,7 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -724,7 +701,7 @@
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -744,17 +721,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -773,15 +750,15 @@
     </row>
     <row r="10" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -791,125 +768,144 @@
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="8" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="3"/>
+      <c r="E20" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="11"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="10"/>
       <c r="B23" s="3"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="3"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{8BE6E72D-2D90-4485-8906-0F3937E4B79C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3DDC14-92B4-4BB1-8783-7DFDDF9AD558}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A18" sqref="A18:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,7 +928,7 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -957,7 +953,7 @@
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -977,17 +973,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="57" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
+    <row r="7" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1004,17 +1000,17 @@
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="57" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>28</v>
+    <row r="10" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1024,104 +1020,134 @@
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="8" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="3"/>
+      <c r="E20" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="11"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{0F7083BE-35FC-4C7E-AC2C-6ED4D325404A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1130,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE72F6DE-074E-40C2-901C-47F33DBE05CF}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1154,7 +1180,7 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1162,7 +1188,7 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
@@ -1179,7 +1205,7 @@
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1199,168 +1225,167 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="79" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="14" t="s">
-        <v>51</v>
+    <row r="7" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>40</v>
-      </c>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5"/>
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>41</v>
-      </c>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5"/>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
+      <c r="E15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="13"/>
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="2" t="s">
-        <v>27</v>
+      <c r="C18" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3"/>
+      <c r="E20" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{4F1143C6-27A1-43EB-AA07-63E915F30525}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1370,7 +1395,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1393,7 +1418,7 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1401,7 +1426,7 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
@@ -1418,7 +1443,7 @@
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1438,13 +1463,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>54</v>
+    <row r="7" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
@@ -1465,17 +1490,17 @@
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>55</v>
+    <row r="10" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="5" t="s">
-        <v>49</v>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="5" t="s">
-        <v>52</v>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1485,84 +1510,113 @@
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="E12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>50</v>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="13"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="10"/>
+    </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{AA2D55D6-67A0-4439-B430-5DE0F480836A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>